--- a/malfiler/Studiebarometeret_2023_vars.xlsx
+++ b/malfiler/Studiebarometeret_2023_vars.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20342EB-6410-4E27-88C3-844AE307A26C}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A927274D-A33C-45D1-A814-E1117E226F7D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>Variabel</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Betalt arbeid</t>
   </si>
   <si>
-    <t>Studiebarometeret 2021</t>
-  </si>
-  <si>
     <t>I hvilken grad er du enig i de følgende påstandene</t>
   </si>
   <si>
@@ -391,6 +388,21 @@
   </si>
   <si>
     <t>overord_altialt_13</t>
+  </si>
+  <si>
+    <t>Studiebarometeret 2022</t>
+  </si>
+  <si>
+    <t>Andel heltid</t>
+  </si>
+  <si>
+    <t>progresjon</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>prosent</t>
   </si>
 </sst>
 </file>
@@ -756,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E65" sqref="A60:E65"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +783,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -787,10 +799,13 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -799,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -808,20 +823,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -833,144 +848,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -981,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17"/>
       <c r="E17" s="2" t="b">
@@ -995,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -1008,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -1021,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -1034,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -1047,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -1072,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -1085,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -1098,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -1111,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -1124,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -1135,7 +1150,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29"/>
       <c r="E29" s="2" t="b">
@@ -1149,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -1162,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -1175,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -1188,7 +1203,7 @@
         <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -1201,7 +1216,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2" t="b">
         <v>0</v>
@@ -1226,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
@@ -1239,7 +1254,7 @@
         <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
@@ -1252,7 +1267,7 @@
         <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -1265,7 +1280,7 @@
         <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -1276,7 +1291,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40"/>
       <c r="E40" s="2" t="b">
@@ -1292,7 +1307,7 @@
         <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
@@ -1317,7 +1332,7 @@
         <v>47</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -1330,7 +1345,7 @@
         <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -1343,7 +1358,7 @@
         <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
@@ -1356,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
@@ -1369,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -1387,85 +1402,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1477,54 +1492,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/malfiler/Studiebarometeret_2023_vars.xlsx
+++ b/malfiler/Studiebarometeret_2023_vars.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A927274D-A33C-45D1-A814-E1117E226F7D}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFFE33C6-1CD9-4A4E-B527-7E57B3527469}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1550,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>122</v>

--- a/malfiler/Studiebarometeret_2023_vars.xlsx
+++ b/malfiler/Studiebarometeret_2023_vars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFFE33C6-1CD9-4A4E-B527-7E57B3527469}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4BFCB0-DC21-4A8D-971A-39D14A0E199F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Variabel</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>prosent</t>
+  </si>
+  <si>
+    <t>Utheving</t>
   </si>
 </sst>
 </file>
@@ -768,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +786,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -848,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" t="s">
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -900,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" t="s">
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" t="s">
@@ -926,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
@@ -952,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -978,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
@@ -990,332 +996,347 @@
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C17"/>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C29"/>
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34"/>
       <c r="E34" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35"/>
       <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C35"/>
-      <c r="E35" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C36"/>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
+      <c r="B41"/>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
@@ -1325,235 +1346,241 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>107</v>
-      </c>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49"/>
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C55"/>
       <c r="E55" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/malfiler/Studiebarometeret_2023_vars.xlsx
+++ b/malfiler/Studiebarometeret_2023_vars.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4BFCB0-DC21-4A8D-971A-39D14A0E199F}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E36665EC-2DEB-4785-B8C6-F42BC7070FC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>Variabel</t>
   </si>
@@ -165,15 +165,6 @@
     <t>INDEKS FAGLIG OG SOSIALT LÆRINGSMILJØ</t>
   </si>
   <si>
-    <t>MEDVIRKNING</t>
-  </si>
-  <si>
-    <t>Studentene har mulighet for å gi innspill på innhold og opplegg i studieprogrammet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ORGANISERING AV PROGRAMMET</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>Hvor tilfreds er du med følgende</t>
   </si>
   <si>
-    <t>I hvilken grad opplever du at</t>
-  </si>
-  <si>
     <t>laerutb_teori_13</t>
   </si>
   <si>
@@ -339,9 +327,6 @@
     <t>indx_psymiljo3</t>
   </si>
   <si>
-    <t>medvirk_innspill_18</t>
-  </si>
-  <si>
     <t>organ_tilgjinfo_17</t>
   </si>
   <si>
@@ -390,9 +375,6 @@
     <t>overord_altialt_13</t>
   </si>
   <si>
-    <t>Studiebarometeret 2022</t>
-  </si>
-  <si>
     <t>Andel heltid</t>
   </si>
   <si>
@@ -406,6 +388,9 @@
   </si>
   <si>
     <t>Utheving</t>
+  </si>
+  <si>
+    <t>Studiebarometeret 2023</t>
   </si>
 </sst>
 </file>
@@ -771,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,10 +788,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -861,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -874,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -887,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -900,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -913,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -926,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -936,10 +921,10 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -949,10 +934,10 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -965,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -978,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -991,7 +976,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -1019,7 +1004,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -1032,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -1045,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -1058,7 +1043,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -1071,7 +1056,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -1085,7 +1070,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="2" t="b">
@@ -1099,7 +1084,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -1112,7 +1097,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -1125,7 +1110,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -1138,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -1151,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -1165,7 +1150,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29"/>
       <c r="E29" s="2" t="b">
@@ -1179,7 +1164,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -1192,7 +1177,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -1205,7 +1190,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -1218,7 +1203,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -1232,7 +1217,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C34"/>
       <c r="E34" s="2" t="b">
@@ -1241,27 +1226,26 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
+      <c r="B35"/>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36"/>
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
@@ -1270,10 +1254,10 @@
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
@@ -1283,10 +1267,10 @@
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -1296,24 +1280,26 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="C40"/>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
@@ -1325,23 +1311,21 @@
         <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42" t="s">
         <v>52</v>
       </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42"/>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
@@ -1350,10 +1334,10 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -1363,10 +1347,10 @@
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -1376,10 +1360,10 @@
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
@@ -1389,24 +1373,23 @@
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="C47"/>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
@@ -1418,99 +1401,100 @@
         <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49"/>
+      <c r="D49" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52" t="s">
-        <v>64</v>
+      <c r="C52" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
+      <c r="F52" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53"/>
       <c r="E53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
-        <v>119</v>
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55"/>
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
       </c>
@@ -1519,10 +1503,10 @@
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -1532,10 +1516,10 @@
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -1545,41 +1529,15 @@
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="b">
+      <c r="G58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
